--- a/GuruDemoProject/TestData/gurudemo_testdata.xlsx
+++ b/GuruDemoProject/TestData/gurudemo_testdata.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shitalc\Desktop\C#_2022\AutomationProject1\GuruDemoProject\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61239E03-3998-4E5A-B3D8-93DEF648BEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLoginData" sheetId="2" r:id="rId1"/>
+    <sheet name="FlightBooking" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +25,108 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expeted result </t>
+  </si>
+  <si>
+    <t>Enter your</t>
+  </si>
+  <si>
+    <t>Raman</t>
+  </si>
+  <si>
+    <t>kgjjkg</t>
+  </si>
+  <si>
+    <t>Rahtdyt</t>
+  </si>
+  <si>
+    <t>Rjhvvhjh</t>
+  </si>
+  <si>
+    <t>Kjhfbdafb</t>
+  </si>
+  <si>
+    <t>Rjbfdj</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password </t>
+  </si>
+  <si>
+    <t>Passenger Count</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shital </t>
+  </si>
+  <si>
+    <t>shital@12345</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>shital@12346</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +149,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +437,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C160E076-B55B-4FD9-9EFA-3E56CC6E0C89}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B875604E-AE4E-4B4A-9A6C-780E3B075F12}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5DDD82C0-4EC6-4935-9319-66F71668DB3A}"/>
+    <hyperlink ref="B3" r:id="rId2" display="shital@12345" xr:uid="{57059A3C-F7B2-4725-BC98-016E31757345}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>